--- a/NformTester/NformTester/Keywordscripts/600.30.20.20_ViewsAllDevicesNavigationView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.20_ViewsAllDevicesNavigationView.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7560" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7560" uniqueCount="847">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3789,6 +3789,10 @@
   </si>
   <si>
     <t>SelectedItemText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4829,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4965,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>781</v>
+        <v>846</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -6340,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -6422,7 +6426,7 @@
       <c r="F54" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="21" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -6462,7 +6466,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -6544,7 +6548,7 @@
       <c r="F58" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="21" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="21" t="s">

--- a/NformTester/NformTester/Keywordscripts/600.30.20.20_ViewsAllDevicesNavigationView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.20_ViewsAllDevicesNavigationView.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7560" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7568" uniqueCount="847">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3661,10 +3661,6 @@
     <t>Parametrics</t>
   </si>
   <si>
-    <t>UPS_10.146.83.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Parametrics_table</t>
   </si>
   <si>
@@ -3747,22 +3743,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UPS_10.146.83.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">;Verify delete one device show up  in all device view </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UPS_10.146.83.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPS_10.146.83.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">;Verify add one device show up  in all device view </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3774,10 +3758,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3793,6 +3773,26 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_2$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_1$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_3$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4092,7 +4092,7 @@
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="4"/>
@@ -4106,7 +4106,35 @@
     <cellStyle name="常规 2 6" xfId="6"/>
     <cellStyle name="常规 2 7" xfId="10"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4547,7 +4575,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4831,10 +4859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q197"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4969,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -5053,7 +5081,7 @@
         <v>767</v>
       </c>
       <c r="B7" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
@@ -5142,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -5197,13 +5225,13 @@
         <v>19</v>
       </c>
       <c r="F11" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>813</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>814</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="21"/>
@@ -5226,10 +5254,10 @@
         <v>781</v>
       </c>
       <c r="E12" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>815</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>816</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>2</v>
@@ -5256,22 +5284,22 @@
         <v>781</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>815</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>816</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>817</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>783</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -5292,7 +5320,7 @@
         <v>781</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>99</v>
@@ -5325,13 +5353,13 @@
         <v>19</v>
       </c>
       <c r="F15" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>813</v>
-      </c>
       <c r="H15" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -5354,10 +5382,10 @@
         <v>781</v>
       </c>
       <c r="E16" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>815</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>816</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>2</v>
@@ -5384,22 +5412,22 @@
         <v>781</v>
       </c>
       <c r="E17" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>815</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>816</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>817</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>783</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -5420,7 +5448,7 @@
         <v>781</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>99</v>
@@ -5447,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -5473,7 +5501,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -5503,7 +5531,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -5533,7 +5561,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>241</v>
@@ -5545,7 +5573,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -5563,7 +5591,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>241</v>
@@ -5591,7 +5619,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>254</v>
@@ -5603,13 +5631,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I24" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>824</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>825</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -5625,7 +5653,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>254</v>
@@ -5653,7 +5681,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>241</v>
@@ -5681,7 +5709,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -5706,7 +5734,7 @@
         <v>806</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F28" s="18">
         <v>2</v>
@@ -5790,7 +5818,7 @@
         <v>56</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -5847,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -5874,10 +5902,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J34" s="21" t="b">
         <v>0</v>
@@ -5906,10 +5934,10 @@
         <v>7</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J35" s="21" t="b">
         <v>0</v>
@@ -5964,7 +5992,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -5992,7 +6020,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -6183,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -6198,7 +6226,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="18"/>
@@ -6285,7 +6313,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -6344,7 +6372,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -6355,7 +6383,7 @@
       <c r="P51" s="30"/>
       <c r="Q51" s="30"/>
     </row>
-    <row r="52" spans="3:17">
+    <row r="52" spans="3:17" s="30" customFormat="1">
       <c r="C52" s="6">
         <v>51</v>
       </c>
@@ -6379,10 +6407,8 @@
       <c r="M52" s="21"/>
       <c r="N52" s="22"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-    </row>
-    <row r="53" spans="3:17">
+    </row>
+    <row r="53" spans="3:17" s="30" customFormat="1">
       <c r="C53" s="6">
         <v>52</v>
       </c>
@@ -6392,26 +6418,20 @@
       <c r="E53" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="21">
-        <v>2</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>832</v>
-      </c>
+      <c r="F53" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="22"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
     </row>
     <row r="54" spans="3:17">
       <c r="C54" s="6">
@@ -6424,20 +6444,14 @@
         <v>626</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>829</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="J54" s="21" t="b">
-        <v>0</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
@@ -6463,10 +6477,10 @@
         <v>56</v>
       </c>
       <c r="H55" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -6488,14 +6502,20 @@
         <v>626</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="J56" s="21" t="b">
+        <v>0</v>
+      </c>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
@@ -6521,10 +6541,10 @@
         <v>56</v>
       </c>
       <c r="H57" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -6546,20 +6566,14 @@
         <v>626</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>829</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="J58" s="21" t="b">
-        <v>1</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
@@ -6578,14 +6592,18 @@
       <c r="E59" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="F59" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="21">
+        <v>2</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>831</v>
+      </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
@@ -6593,6 +6611,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="2"/>
       <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
     </row>
     <row r="60" spans="3:17">
       <c r="C60" s="6">
@@ -6604,21 +6623,28 @@
       <c r="E60" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="F60" s="21" t="s">
-        <v>17</v>
+      <c r="F60" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="J60" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
       <c r="N60" s="22"/>
       <c r="O60" s="2"/>
       <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
     </row>
     <row r="61" spans="3:17">
       <c r="C61" s="6">
@@ -6627,13 +6653,13 @@
       <c r="D61" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="21" t="s">
+      <c r="E61" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="21"/>
@@ -6653,11 +6679,11 @@
       <c r="D62" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>623</v>
+      <c r="E62" s="21" t="s">
+        <v>626</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>2</v>
@@ -6672,16 +6698,22 @@
       <c r="O62" s="2"/>
       <c r="P62" s="30"/>
     </row>
-    <row r="63" spans="3:17" ht="15">
+    <row r="63" spans="3:17">
       <c r="C63" s="6">
         <v>62</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="D63" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
@@ -6696,16 +6728,16 @@
       <c r="C64" s="6">
         <v>63</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>781</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="21"/>
@@ -6718,22 +6750,16 @@
       <c r="O64" s="2"/>
       <c r="P64" s="30"/>
     </row>
-    <row r="65" spans="3:16">
+    <row r="65" spans="3:16" ht="15">
       <c r="C65" s="6">
         <v>64</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="D65" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -6751,11 +6777,11 @@
       <c r="D66" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>577</v>
+      <c r="E66" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>2</v>
@@ -6777,11 +6803,11 @@
       <c r="D67" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>585</v>
+      <c r="E67" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>2</v>
@@ -6807,7 +6833,7 @@
         <v>577</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>2</v>
@@ -6829,16 +6855,16 @@
       <c r="D69" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E69" s="18" t="s">
-        <v>19</v>
+      <c r="E69" s="31" t="s">
+        <v>585</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="18"/>
+      <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
@@ -6855,16 +6881,16 @@
       <c r="D70" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>19</v>
+      <c r="E70" s="31" t="s">
+        <v>577</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="18"/>
+      <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
@@ -6882,17 +6908,15 @@
         <v>781</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>624</v>
+        <v>22</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>827</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" s="18"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
@@ -6910,15 +6934,15 @@
         <v>781</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="18"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
@@ -6932,24 +6956,22 @@
       <c r="C73" s="6">
         <v>72</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E73" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="G73" s="21" t="s">
+      <c r="E73" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G73" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="21">
-        <v>2</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>836</v>
-      </c>
+      <c r="H73" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
@@ -6962,24 +6984,20 @@
       <c r="C74" s="6">
         <v>73</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E74" s="21" t="s">
-        <v>626</v>
+      <c r="E74" s="18" t="s">
+        <v>623</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="21">
-        <v>2</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>834</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
@@ -7008,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
@@ -7028,14 +7046,18 @@
       <c r="E76" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="F76" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="F76" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="21">
+        <v>2</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>844</v>
+      </c>
       <c r="J76" s="21"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21"/>
@@ -7048,20 +7070,24 @@
       <c r="C77" s="6">
         <v>76</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E77" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+      <c r="E77" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="21">
+        <v>2</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>846</v>
+      </c>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
@@ -7070,16 +7096,22 @@
       <c r="O77" s="2"/>
       <c r="P77" s="30"/>
     </row>
-    <row r="78" spans="3:16" ht="15">
+    <row r="78" spans="3:16">
       <c r="C78" s="6">
         <v>77</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="D78" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
@@ -7088,61 +7120,45 @@
       <c r="M78" s="21"/>
       <c r="N78" s="22"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="20"/>
+      <c r="P78" s="30"/>
     </row>
     <row r="79" spans="3:16">
       <c r="C79" s="6">
         <v>78</v>
       </c>
-      <c r="D79" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="I79" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="J79" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>842</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>843</v>
-      </c>
-      <c r="M79" s="21" t="s">
-        <v>844</v>
-      </c>
-      <c r="N79" s="29"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="20"/>
-    </row>
-    <row r="80" spans="3:16">
+      <c r="D79" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="30"/>
+    </row>
+    <row r="80" spans="3:16" ht="15">
       <c r="C80" s="6">
         <v>79</v>
       </c>
-      <c r="D80" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="18"/>
+      <c r="D80" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
@@ -7156,26 +7172,36 @@
       <c r="C81" s="6">
         <v>80</v>
       </c>
-      <c r="D81" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="2"/>
+      <c r="D81" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="M81" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="N81" s="29"/>
+      <c r="O81" s="30"/>
       <c r="P81" s="20"/>
     </row>
     <row r="82" spans="3:16">
@@ -7186,17 +7212,15 @@
         <v>781</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>624</v>
+        <v>22</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>827</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" s="18"/>
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
@@ -7214,15 +7238,15 @@
         <v>781</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="18"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
@@ -7236,24 +7260,22 @@
       <c r="C84" s="6">
         <v>83</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E84" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="G84" s="21" t="s">
+      <c r="E84" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H84" s="21">
-        <v>2</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>841</v>
-      </c>
+      <c r="H84" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
       <c r="L84" s="21"/>
@@ -7266,16 +7288,16 @@
       <c r="C85" s="6">
         <v>84</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E85" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="18" t="s">
+      <c r="E85" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H85" s="21"/>
@@ -7292,20 +7314,24 @@
       <c r="C86" s="6">
         <v>85</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E86" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
+      <c r="E86" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="21">
+        <v>2</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>843</v>
+      </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
@@ -7314,23 +7340,29 @@
       <c r="O86" s="2"/>
       <c r="P86" s="20"/>
     </row>
-    <row r="87" spans="3:16" ht="15">
+    <row r="87" spans="3:16">
       <c r="C87" s="6">
         <v>86</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="19"/>
+      <c r="D87" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="22"/>
       <c r="O87" s="2"/>
       <c r="P87" s="20"/>
     </row>
@@ -7338,46 +7370,40 @@
       <c r="C88" s="6">
         <v>87</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="19"/>
+      <c r="E88" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="22"/>
       <c r="O88" s="2"/>
       <c r="P88" s="20"/>
     </row>
-    <row r="89" spans="3:16">
+    <row r="89" spans="3:16" ht="15">
       <c r="C89" s="6">
         <v>88</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="D89" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -7394,17 +7420,15 @@
         <v>781</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>804</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" s="11"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -7412,8 +7436,9 @@
       <c r="M90" s="6"/>
       <c r="N90" s="19"/>
       <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="3:16" ht="14.25">
+      <c r="P90" s="20"/>
+    </row>
+    <row r="91" spans="3:16">
       <c r="C91" s="6">
         <v>90</v>
       </c>
@@ -7421,22 +7446,23 @@
         <v>781</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H91" s="17"/>
-      <c r="I91" s="6"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="16"/>
+      <c r="N91" s="19"/>
       <c r="O91" s="2"/>
+      <c r="P91" s="20"/>
     </row>
     <row r="92" spans="3:16">
       <c r="C92" s="6">
@@ -7445,25 +7471,27 @@
       <c r="D92" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>585</v>
+      <c r="E92" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>804</v>
+      </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="16"/>
+      <c r="N92" s="19"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="3:16">
+    <row r="93" spans="3:16" ht="14.25">
       <c r="C93" s="6">
         <v>92</v>
       </c>
@@ -7474,13 +7502,13 @@
         <v>577</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -7489,12 +7517,22 @@
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="3:16">
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="C94" s="6">
+        <v>93</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="11"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -7504,13 +7542,23 @@
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="3:16">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="C95" s="6">
+        <v>94</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -7560,7 +7608,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-      <c r="N98" s="19"/>
+      <c r="N98" s="16"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="3:16">
@@ -7575,7 +7623,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
-      <c r="N99" s="19"/>
+      <c r="N99" s="16"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="3:16">
@@ -7620,7 +7668,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="16"/>
+      <c r="N102" s="19"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="3:16">
@@ -7635,7 +7683,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="3"/>
+      <c r="N103" s="19"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="3:16">
@@ -7650,7 +7698,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="3"/>
+      <c r="N104" s="16"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="3:16">
@@ -7710,6 +7758,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
+      <c r="N108" s="3"/>
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="3:16">
@@ -7724,6 +7773,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
+      <c r="N109" s="3"/>
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="3:16">
@@ -7738,7 +7788,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
-      <c r="P110" s="20"/>
+      <c r="O110" s="2"/>
     </row>
     <row r="111" spans="3:16">
       <c r="C111" s="6"/>
@@ -7752,6 +7802,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
+      <c r="O111" s="2"/>
     </row>
     <row r="112" spans="3:16">
       <c r="C112" s="6"/>
@@ -7765,6 +7816,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
+      <c r="P112" s="20"/>
     </row>
     <row r="113" spans="3:13">
       <c r="C113" s="6"/>
@@ -8053,6 +8105,7 @@
       <c r="M134" s="6"/>
     </row>
     <row r="135" spans="3:13">
+      <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -8065,6 +8118,7 @@
       <c r="M135" s="6"/>
     </row>
     <row r="136" spans="3:13">
+      <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -8432,6 +8486,9 @@
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
     </row>
     <row r="167" spans="4:13">
       <c r="D167" s="6"/>
@@ -8441,6 +8498,9 @@
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
     </row>
     <row r="168" spans="4:13">
       <c r="D168" s="6"/>
@@ -8712,27 +8772,45 @@
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
     </row>
+    <row r="198" spans="4:10">
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="4:10">
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N101">
-    <cfRule type="cellIs" dxfId="1" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N103">
+    <cfRule type="cellIs" dxfId="5" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="34" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G88">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F88">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D64:D77 D47:D62 D28:D45 D20:D26 D7:D18 D3:D5 D79:D86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66:D79 D81:D88 D28:D45 D20:D26 D7:D18 D3:D5 D47:D64">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E88">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.30.20.20_ViewsAllDevicesNavigationView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.20_ViewsAllDevicesNavigationView.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -1204,12 +1204,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7568" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7531" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3622,15 +3622,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>MultiSearch</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchEnd$</t>
-  </si>
-  <si>
     <t>Zoe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3646,153 +3637,153 @@
     <t>C</t>
   </si>
   <si>
+    <t>All Devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parametrics</t>
+  </si>
+  <si>
+    <t>Parametrics_table</t>
+  </si>
+  <si>
+    <t>DoubleClickItem</t>
+  </si>
+  <si>
+    <t>"System Name"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormData_Point_Details</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebert Demo GXT2 </t>
+  </si>
+  <si>
+    <t>"Agent Manufacturer"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebert Corporation </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify the default view for administrator user </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"All Devices"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify Add group in all device view </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"testgroup"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"for test"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testgroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify delete group in all device view </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify delete one device show up  in all device view </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify add one device show up  in all device view </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">;Login </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">;Verify device in navigate  </t>
+    <t>FormMain</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>All Devices</t>
+    <t>;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Parametrics</t>
-  </si>
-  <si>
-    <t>Parametrics_table</t>
-  </si>
-  <si>
-    <t>DoubleClickItem</t>
-  </si>
-  <si>
-    <t>"System Name"</t>
+    <t>SelectedItemText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FormData_Point_Details</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liebert Demo GXT2 </t>
-  </si>
-  <si>
-    <t>"Agent Manufacturer"</t>
+    <t>;Verify device in navigate  Need 1 device.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Liebert Corporation </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify the default view for administrator user </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Devices</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"All Devices"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify Add group in all device view </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"testgroup"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"for test"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testgroup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify delete group in all device view </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify delete one device show up  in all device view </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify add one device show up  in all device view </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleManual</t>
   </si>
   <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Description for GXT"</t>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"Liebert GXT UPS/WebCard"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>SelectedItemText</t>
+    <t>F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$NAME_SearchStart_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$NAME_SNMP_GXT_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$NAME_SearchStart_2$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$NAME_SearchStart_1$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$NAME_SearchStart_3$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4012,7 +4003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4078,9 +4069,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4092,7 +4080,7 @@
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="4"/>
@@ -4106,21 +4094,7 @@
     <cellStyle name="常规 2 6" xfId="6"/>
     <cellStyle name="常规 2 7" xfId="10"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4575,7 +4549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4859,10 +4833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4937,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4956,7 +4930,7 @@
         <v>790</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -4997,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -5027,29 +5001,35 @@
       <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
-        <v>800</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>801</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>802</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="15">
@@ -5061,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -5081,7 +5061,7 @@
         <v>767</v>
       </c>
       <c r="B7" s="5">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
@@ -5132,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="J8" s="21">
         <v>-10</v>
@@ -5169,8 +5149,8 @@
       <c r="H9" s="21">
         <v>2</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>842</v>
+      <c r="I9" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -5193,11 +5173,11 @@
       <c r="D10" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>19</v>
+      <c r="E10" s="30" t="s">
+        <v>835</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>2</v>
@@ -5225,13 +5205,13 @@
         <v>19</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="21"/>
@@ -5250,21 +5230,21 @@
       <c r="C12" s="6">
         <v>11</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="E12" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -5280,26 +5260,26 @@
       <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="E13" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>817</v>
+      <c r="J13" s="31" t="s">
+        <v>812</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -5316,21 +5296,21 @@
       <c r="C14" s="6">
         <v>13</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="G14" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -5349,17 +5329,17 @@
       <c r="D15" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -5378,21 +5358,21 @@
       <c r="C16" s="6">
         <v>15</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="E16" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -5408,26 +5388,26 @@
       <c r="C17" s="6">
         <v>16</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>814</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>819</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -5444,21 +5424,21 @@
       <c r="C18" s="6">
         <v>17</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="G18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -5475,7 +5455,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -5501,7 +5481,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -5531,7 +5511,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -5561,9 +5541,9 @@
         <v>21</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="E22" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>241</v>
       </c>
       <c r="F22" s="18" t="s">
@@ -5572,8 +5552,8 @@
       <c r="G22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>822</v>
+      <c r="H22" s="30" t="s">
+        <v>817</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -5591,9 +5571,9 @@
         <v>22</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="E23" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>241</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -5619,9 +5599,9 @@
         <v>23</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="E24" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>254</v>
       </c>
       <c r="F24" s="21" t="s">
@@ -5631,13 +5611,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -5653,9 +5633,9 @@
         <v>24</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="E25" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>254</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -5681,9 +5661,9 @@
         <v>25</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="E26" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>241</v>
       </c>
       <c r="F26" s="21" t="s">
@@ -5709,7 +5689,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -5731,10 +5711,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>806</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>825</v>
+        <v>803</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>820</v>
       </c>
       <c r="F28" s="18">
         <v>2</v>
@@ -5818,7 +5798,7 @@
         <v>56</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -5874,8 +5854,8 @@
       <c r="H33" s="21">
         <v>2</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>842</v>
+      <c r="I33" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
@@ -5902,10 +5882,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J34" s="21" t="b">
         <v>0</v>
@@ -5934,10 +5914,10 @@
         <v>7</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J35" s="21" t="b">
         <v>0</v>
@@ -5992,7 +5972,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -6020,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -6090,7 +6070,7 @@
       <c r="D41" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="30" t="s">
         <v>277</v>
       </c>
       <c r="F41" s="21" t="s">
@@ -6168,7 +6148,7 @@
       <c r="D44" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="18" t="s">
@@ -6181,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
@@ -6198,7 +6178,7 @@
       <c r="D45" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="18" t="s">
@@ -6211,7 +6191,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -6226,9 +6206,9 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="E46" s="31"/>
+        <v>827</v>
+      </c>
+      <c r="E46" s="30"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="21"/>
@@ -6239,8 +6219,8 @@
       <c r="M46" s="21"/>
       <c r="N46" s="22"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="3:17">
       <c r="C47" s="6">
@@ -6266,8 +6246,8 @@
       <c r="M47" s="21"/>
       <c r="N47" s="22"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="3:17">
       <c r="C48" s="6">
@@ -6293,8 +6273,8 @@
       <c r="M48" s="21"/>
       <c r="N48" s="22"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="3:17">
       <c r="C49" s="6">
@@ -6313,7 +6293,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -6322,8 +6302,8 @@
       <c r="M49" s="21"/>
       <c r="N49" s="22"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
     </row>
     <row r="50" spans="3:17">
       <c r="C50" s="6">
@@ -6349,8 +6329,8 @@
       <c r="M50" s="21"/>
       <c r="N50" s="22"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
     </row>
     <row r="51" spans="3:17">
       <c r="C51" s="6">
@@ -6371,8 +6351,8 @@
       <c r="H51" s="21">
         <v>2</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>844</v>
+      <c r="I51" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -6380,10 +6360,10 @@
       <c r="M51" s="21"/>
       <c r="N51" s="22"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-    </row>
-    <row r="52" spans="3:17" s="30" customFormat="1">
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+    </row>
+    <row r="52" spans="3:17" s="29" customFormat="1">
       <c r="C52" s="6">
         <v>51</v>
       </c>
@@ -6408,12 +6388,12 @@
       <c r="N52" s="22"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="3:17" s="30" customFormat="1">
+    <row r="53" spans="3:17" s="29" customFormat="1">
       <c r="C53" s="6">
         <v>52</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>781</v>
+        <v>843</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>626</v>
@@ -6438,7 +6418,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>781</v>
+        <v>836</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>626</v>
@@ -6457,8 +6437,8 @@
       <c r="M54" s="21"/>
       <c r="N54" s="22"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
     </row>
     <row r="55" spans="3:17">
       <c r="C55" s="6">
@@ -6480,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -6488,8 +6468,8 @@
       <c r="M55" s="21"/>
       <c r="N55" s="22"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
     </row>
     <row r="56" spans="3:17">
       <c r="C56" s="6">
@@ -6508,10 +6488,10 @@
         <v>7</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J56" s="21" t="b">
         <v>0</v>
@@ -6521,8 +6501,8 @@
       <c r="M56" s="21"/>
       <c r="N56" s="22"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
     </row>
     <row r="57" spans="3:17">
       <c r="C57" s="6">
@@ -6543,8 +6523,8 @@
       <c r="H57" s="21">
         <v>3</v>
       </c>
-      <c r="I57" s="21" t="s">
-        <v>844</v>
+      <c r="I57" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -6552,8 +6532,8 @@
       <c r="M57" s="21"/>
       <c r="N57" s="22"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
     </row>
     <row r="58" spans="3:17">
       <c r="C58" s="6">
@@ -6579,8 +6559,8 @@
       <c r="M58" s="21"/>
       <c r="N58" s="22"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="3:17">
       <c r="C59" s="6">
@@ -6602,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
@@ -6610,8 +6590,8 @@
       <c r="M59" s="21"/>
       <c r="N59" s="22"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
     </row>
     <row r="60" spans="3:17">
       <c r="C60" s="6">
@@ -6630,10 +6610,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="J60" s="21" t="b">
         <v>1</v>
@@ -6643,8 +6623,8 @@
       <c r="M60" s="21"/>
       <c r="N60" s="22"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
     </row>
     <row r="61" spans="3:17">
       <c r="C61" s="6">
@@ -6670,7 +6650,7 @@
       <c r="M61" s="21"/>
       <c r="N61" s="22"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="30"/>
+      <c r="P61" s="29"/>
     </row>
     <row r="62" spans="3:17">
       <c r="C62" s="6">
@@ -6696,7 +6676,7 @@
       <c r="M62" s="21"/>
       <c r="N62" s="22"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="30"/>
+      <c r="P62" s="29"/>
     </row>
     <row r="63" spans="3:17">
       <c r="C63" s="6">
@@ -6705,7 +6685,7 @@
       <c r="D63" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="30" t="s">
         <v>277</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -6722,7 +6702,7 @@
       <c r="M63" s="21"/>
       <c r="N63" s="22"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="30"/>
+      <c r="P63" s="29"/>
     </row>
     <row r="64" spans="3:17">
       <c r="C64" s="6">
@@ -6748,16 +6728,16 @@
       <c r="M64" s="21"/>
       <c r="N64" s="22"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="30"/>
+      <c r="P64" s="29"/>
     </row>
     <row r="65" spans="3:16" ht="15">
       <c r="C65" s="6">
         <v>64</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="E65" s="31"/>
+        <v>828</v>
+      </c>
+      <c r="E65" s="30"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="21"/>
@@ -6768,7 +6748,7 @@
       <c r="M65" s="21"/>
       <c r="N65" s="22"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="30"/>
+      <c r="P65" s="29"/>
     </row>
     <row r="66" spans="3:16">
       <c r="C66" s="6">
@@ -6794,7 +6774,7 @@
       <c r="M66" s="21"/>
       <c r="N66" s="22"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="30"/>
+      <c r="P66" s="29"/>
     </row>
     <row r="67" spans="3:16">
       <c r="C67" s="6">
@@ -6820,7 +6800,7 @@
       <c r="M67" s="21"/>
       <c r="N67" s="22"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="30"/>
+      <c r="P67" s="29"/>
     </row>
     <row r="68" spans="3:16">
       <c r="C68" s="6">
@@ -6829,7 +6809,7 @@
       <c r="D68" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="30" t="s">
         <v>577</v>
       </c>
       <c r="F68" s="18" t="s">
@@ -6846,7 +6826,7 @@
       <c r="M68" s="21"/>
       <c r="N68" s="22"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="30"/>
+      <c r="P68" s="29"/>
     </row>
     <row r="69" spans="3:16">
       <c r="C69" s="6">
@@ -6855,7 +6835,7 @@
       <c r="D69" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="30" t="s">
         <v>585</v>
       </c>
       <c r="F69" s="18" t="s">
@@ -6872,7 +6852,7 @@
       <c r="M69" s="21"/>
       <c r="N69" s="22"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="30"/>
+      <c r="P69" s="29"/>
     </row>
     <row r="70" spans="3:16">
       <c r="C70" s="6">
@@ -6881,7 +6861,7 @@
       <c r="D70" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="30" t="s">
         <v>577</v>
       </c>
       <c r="F70" s="18" t="s">
@@ -6898,25 +6878,19 @@
       <c r="M70" s="21"/>
       <c r="N70" s="22"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="30"/>
-    </row>
-    <row r="71" spans="3:16">
+      <c r="P70" s="29"/>
+    </row>
+    <row r="71" spans="3:16" ht="15">
       <c r="C71" s="6">
         <v>70</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="18"/>
+      <c r="D71" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
@@ -6924,33 +6898,43 @@
       <c r="M71" s="21"/>
       <c r="N71" s="22"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="30"/>
+      <c r="P71" s="20"/>
     </row>
     <row r="72" spans="3:16">
       <c r="C72" s="6">
         <v>71</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="30"/>
+      <c r="D72" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="N72" s="16"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="20"/>
     </row>
     <row r="73" spans="3:16">
       <c r="C73" s="6">
@@ -6960,17 +6944,15 @@
         <v>781</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>624</v>
+        <v>22</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" s="18"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
@@ -6978,7 +6960,7 @@
       <c r="M73" s="21"/>
       <c r="N73" s="22"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="30"/>
+      <c r="P73" s="20"/>
     </row>
     <row r="74" spans="3:16">
       <c r="C74" s="6">
@@ -6988,15 +6970,15 @@
         <v>781</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="18"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
@@ -7004,67 +6986,61 @@
       <c r="M74" s="21"/>
       <c r="N74" s="22"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="30"/>
+      <c r="P74" s="20"/>
     </row>
     <row r="75" spans="3:16">
       <c r="C75" s="6">
         <v>74</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E75" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="G75" s="21" t="s">
+      <c r="E75" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G75" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H75" s="21">
-        <v>2</v>
-      </c>
-      <c r="I75" s="21" t="s">
-        <v>845</v>
-      </c>
+      <c r="H75" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
       <c r="N75" s="22"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="30"/>
+      <c r="P75" s="20"/>
     </row>
     <row r="76" spans="3:16">
       <c r="C76" s="6">
         <v>75</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="E76" s="21" t="s">
-        <v>626</v>
+      <c r="E76" s="18" t="s">
+        <v>623</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="21">
-        <v>2</v>
-      </c>
-      <c r="I76" s="21" t="s">
-        <v>844</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="21"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
       <c r="N76" s="22"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="30"/>
+      <c r="P76" s="20"/>
     </row>
     <row r="77" spans="3:16">
       <c r="C77" s="6">
@@ -7085,8 +7061,8 @@
       <c r="H77" s="21">
         <v>2</v>
       </c>
-      <c r="I77" s="21" t="s">
-        <v>846</v>
+      <c r="I77" s="6" t="s">
+        <v>840</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
@@ -7094,7 +7070,7 @@
       <c r="M77" s="21"/>
       <c r="N77" s="22"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="30"/>
+      <c r="P77" s="20"/>
     </row>
     <row r="78" spans="3:16">
       <c r="C78" s="6">
@@ -7120,7 +7096,7 @@
       <c r="M78" s="21"/>
       <c r="N78" s="22"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="30"/>
+      <c r="P78" s="20"/>
     </row>
     <row r="79" spans="3:16">
       <c r="C79" s="6">
@@ -7146,25 +7122,25 @@
       <c r="M79" s="21"/>
       <c r="N79" s="22"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="30"/>
+      <c r="P79" s="20"/>
     </row>
     <row r="80" spans="3:16" ht="15">
       <c r="C80" s="6">
         <v>79</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="22"/>
+        <v>802</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="19"/>
       <c r="O80" s="2"/>
       <c r="P80" s="20"/>
     </row>
@@ -7172,61 +7148,51 @@
       <c r="C81" s="6">
         <v>80</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21" t="s">
-        <v>835</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>836</v>
-      </c>
-      <c r="J81" s="21" t="s">
-        <v>843</v>
-      </c>
-      <c r="K81" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="L81" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="M81" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="N81" s="29"/>
-      <c r="O81" s="30"/>
+      <c r="D81" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="2"/>
       <c r="P81" s="20"/>
     </row>
     <row r="82" spans="3:16">
       <c r="C82" s="6">
         <v>81</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="22"/>
+      <c r="F82" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="19"/>
       <c r="O82" s="2"/>
       <c r="P82" s="20"/>
     </row>
@@ -7234,255 +7200,186 @@
       <c r="C83" s="6">
         <v>82</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="22"/>
+      <c r="E83" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="19"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="20"/>
-    </row>
-    <row r="84" spans="3:16">
+    </row>
+    <row r="84" spans="3:16" ht="14.25">
       <c r="C84" s="6">
         <v>83</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E84" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="22"/>
+      <c r="E84" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="16"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="20"/>
     </row>
     <row r="85" spans="3:16">
       <c r="C85" s="6">
         <v>84</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E85" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="22"/>
+      <c r="E85" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="16"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="20"/>
     </row>
     <row r="86" spans="3:16">
       <c r="C86" s="6">
         <v>85</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E86" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="G86" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H86" s="21">
-        <v>2</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>843</v>
-      </c>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="22"/>
+      <c r="E86" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="16"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="20"/>
     </row>
     <row r="87" spans="3:16">
-      <c r="C87" s="6">
-        <v>86</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="22"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="16"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="20"/>
     </row>
     <row r="88" spans="3:16">
-      <c r="C88" s="6">
-        <v>87</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="22"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="16"/>
       <c r="O88" s="2"/>
-      <c r="P88" s="20"/>
-    </row>
-    <row r="89" spans="3:16" ht="15">
-      <c r="C89" s="6">
-        <v>88</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>805</v>
-      </c>
+    </row>
+    <row r="89" spans="3:16">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="19"/>
+      <c r="N89" s="16"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="20"/>
     </row>
     <row r="90" spans="3:16">
-      <c r="C90" s="6">
-        <v>89</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="11"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="19"/>
+      <c r="N90" s="16"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="20"/>
     </row>
     <row r="91" spans="3:16">
-      <c r="C91" s="6">
-        <v>90</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="19"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="20"/>
     </row>
     <row r="92" spans="3:16">
-      <c r="C92" s="6">
-        <v>91</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>804</v>
-      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -7491,74 +7388,44 @@
       <c r="N92" s="19"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="3:16" ht="14.25">
-      <c r="C93" s="6">
-        <v>92</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="17"/>
+    <row r="93" spans="3:16">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="16"/>
+      <c r="N93" s="19"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="3:16">
-      <c r="C94" s="6">
-        <v>93</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="11"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
-      <c r="N94" s="16"/>
+      <c r="N94" s="19"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="3:16">
-      <c r="C95" s="6">
-        <v>94</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -7578,7 +7445,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
-      <c r="N96" s="16"/>
+      <c r="N96" s="3"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="3:16">
@@ -7593,7 +7460,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="16"/>
+      <c r="N97" s="3"/>
       <c r="O97" s="2"/>
     </row>
     <row r="98" spans="3:16">
@@ -7608,7 +7475,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-      <c r="N98" s="16"/>
+      <c r="N98" s="3"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="3:16">
@@ -7623,7 +7490,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
-      <c r="N99" s="16"/>
+      <c r="N99" s="3"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="3:16">
@@ -7638,7 +7505,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
-      <c r="N100" s="19"/>
+      <c r="N100" s="3"/>
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="3:16">
@@ -7653,7 +7520,6 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="19"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="3:16">
@@ -7668,7 +7534,6 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="19"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="3:16">
@@ -7683,8 +7548,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="2"/>
+      <c r="P103" s="20"/>
     </row>
     <row r="104" spans="3:16">
       <c r="C104" s="6"/>
@@ -7698,8 +7562,6 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="2"/>
     </row>
     <row r="105" spans="3:16">
       <c r="C105" s="6"/>
@@ -7713,8 +7575,6 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="2"/>
     </row>
     <row r="106" spans="3:16">
       <c r="C106" s="6"/>
@@ -7728,8 +7588,6 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="2"/>
     </row>
     <row r="107" spans="3:16">
       <c r="C107" s="6"/>
@@ -7743,8 +7601,6 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="2"/>
     </row>
     <row r="108" spans="3:16">
       <c r="C108" s="6"/>
@@ -7758,8 +7614,6 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="2"/>
     </row>
     <row r="109" spans="3:16">
       <c r="C109" s="6"/>
@@ -7773,8 +7627,6 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="2"/>
     </row>
     <row r="110" spans="3:16">
       <c r="C110" s="6"/>
@@ -7788,7 +7640,6 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
-      <c r="O110" s="2"/>
     </row>
     <row r="111" spans="3:16">
       <c r="C111" s="6"/>
@@ -7802,7 +7653,6 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
-      <c r="O111" s="2"/>
     </row>
     <row r="112" spans="3:16">
       <c r="C112" s="6"/>
@@ -7816,7 +7666,6 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
-      <c r="P112" s="20"/>
     </row>
     <row r="113" spans="3:13">
       <c r="C113" s="6"/>
@@ -8014,7 +7863,6 @@
       <c r="M127" s="6"/>
     </row>
     <row r="128" spans="3:13">
-      <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -8026,8 +7874,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="3:13">
-      <c r="C129" s="6"/>
+    <row r="129" spans="4:13">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -8039,8 +7886,7 @@
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="3:13">
-      <c r="C130" s="6"/>
+    <row r="130" spans="4:13">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -8052,8 +7898,7 @@
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
     </row>
-    <row r="131" spans="3:13">
-      <c r="C131" s="6"/>
+    <row r="131" spans="4:13">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -8065,8 +7910,7 @@
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
     </row>
-    <row r="132" spans="3:13">
-      <c r="C132" s="6"/>
+    <row r="132" spans="4:13">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -8078,8 +7922,7 @@
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
     </row>
-    <row r="133" spans="3:13">
-      <c r="C133" s="6"/>
+    <row r="133" spans="4:13">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -8091,8 +7934,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
     </row>
-    <row r="134" spans="3:13">
-      <c r="C134" s="6"/>
+    <row r="134" spans="4:13">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -8104,8 +7946,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
     </row>
-    <row r="135" spans="3:13">
-      <c r="C135" s="6"/>
+    <row r="135" spans="4:13">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -8117,8 +7958,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="3:13">
-      <c r="C136" s="6"/>
+    <row r="136" spans="4:13">
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -8130,7 +7970,7 @@
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="3:13">
+    <row r="137" spans="4:13">
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -8142,7 +7982,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="3:13">
+    <row r="138" spans="4:13">
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -8154,7 +7994,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="3:13">
+    <row r="139" spans="4:13">
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -8166,7 +8006,7 @@
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="3:13">
+    <row r="140" spans="4:13">
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -8178,7 +8018,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="3:13">
+    <row r="141" spans="4:13">
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -8190,7 +8030,7 @@
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
     </row>
-    <row r="142" spans="3:13">
+    <row r="142" spans="4:13">
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -8202,7 +8042,7 @@
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="3:13">
+    <row r="143" spans="4:13">
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -8214,7 +8054,7 @@
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
     </row>
-    <row r="144" spans="3:13">
+    <row r="144" spans="4:13">
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -8402,9 +8242,6 @@
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
     </row>
     <row r="160" spans="4:13">
       <c r="D160" s="6"/>
@@ -8414,11 +8251,8 @@
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-    </row>
-    <row r="161" spans="4:13">
+    </row>
+    <row r="161" spans="4:10">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -8426,11 +8260,8 @@
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-    </row>
-    <row r="162" spans="4:13">
+    </row>
+    <row r="162" spans="4:10">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -8438,11 +8269,8 @@
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-    </row>
-    <row r="163" spans="4:13">
+    </row>
+    <row r="163" spans="4:10">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -8450,11 +8278,8 @@
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-    </row>
-    <row r="164" spans="4:13">
+    </row>
+    <row r="164" spans="4:10">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -8462,11 +8287,8 @@
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="4:13">
+    </row>
+    <row r="165" spans="4:10">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -8474,11 +8296,8 @@
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-    </row>
-    <row r="166" spans="4:13">
+    </row>
+    <row r="166" spans="4:10">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -8486,11 +8305,8 @@
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-    </row>
-    <row r="167" spans="4:13">
+    </row>
+    <row r="167" spans="4:10">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -8498,11 +8314,8 @@
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-    </row>
-    <row r="168" spans="4:13">
+    </row>
+    <row r="168" spans="4:10">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -8511,7 +8324,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
     </row>
-    <row r="169" spans="4:13">
+    <row r="169" spans="4:10">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -8520,7 +8333,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
     </row>
-    <row r="170" spans="4:13">
+    <row r="170" spans="4:10">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -8529,7 +8342,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="4:13">
+    <row r="171" spans="4:10">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -8538,7 +8351,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="4:13">
+    <row r="172" spans="4:10">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -8547,7 +8360,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="4:13">
+    <row r="173" spans="4:10">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -8556,7 +8369,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="4:13">
+    <row r="174" spans="4:10">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -8565,7 +8378,7 @@
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="4:13">
+    <row r="175" spans="4:10">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -8574,7 +8387,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="4:13">
+    <row r="176" spans="4:10">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -8709,108 +8522,35 @@
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
     </row>
-    <row r="191" spans="4:10">
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-    </row>
-    <row r="192" spans="4:10">
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-    </row>
-    <row r="193" spans="4:10">
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-    </row>
-    <row r="194" spans="4:10">
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-    </row>
-    <row r="195" spans="4:10">
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-    </row>
-    <row r="196" spans="4:10">
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-    </row>
-    <row r="197" spans="4:10">
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-    </row>
-    <row r="198" spans="4:10">
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-    </row>
-    <row r="199" spans="4:10">
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N103">
-    <cfRule type="cellIs" dxfId="5" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N94">
+    <cfRule type="cellIs" dxfId="3" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72:D79 D66:D70 D3:D5 D28:D45 D20:D26 D7:D18 D47:D64">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G79">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F79">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66:D79 D81:D88 D28:D45 D20:D26 D7:D18 D3:D5 D47:D64">
-      <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E79">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
